--- a/data/FR_DATA.xlsx
+++ b/data/FR_DATA.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="135" windowWidth="10500" windowHeight="7935"/>
+    <workbookView xWindow="9855" yWindow="135" windowWidth="10500" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RESULTATS" sheetId="1" r:id="rId1"/>
     <sheet name="DONNEES ELECTORALES" sheetId="2" r:id="rId2"/>
     <sheet name="DONNEES I.N.S" sheetId="3" r:id="rId3"/>
-    <sheet name="DONNEES SCRUTIN" sheetId="4" r:id="rId4"/>
+    <sheet name="DONNEES ISIE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -1032,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3790,8 +3790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
